--- a/src/test/resources/tests_excels/feeTypeTestCases.xlsx
+++ b/src/test/resources/tests_excels/feeTypeTestCases.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>statusCode</t>
   </si>
@@ -64,13 +65,37 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>https://test.campus.techno.study</t>
+  </si>
+  <si>
+    <t>daulet2030@gmail.com</t>
+  </si>
+  <si>
+    <t>TechnoStudy123@</t>
+  </si>
+  <si>
+    <t>/school-service/api/fee-types/</t>
+  </si>
+  <si>
+    <t>baseURI</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>apiPath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +240,12 @@
       <sz val="9"/>
       <color rgb="FF0D22AA"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -571,7 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -580,6 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,11 +937,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -918,7 +952,7 @@
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -941,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -964,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -985,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1027,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1052,4 +1086,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/tests_excels/feeTypeTestCases.xlsx
+++ b/src/test/resources/tests_excels/feeTypeTestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>Kazakhstan Country</t>
-  </si>
-  <si>
-    <t>KZC</t>
-  </si>
-  <si>
-    <t>USA Country</t>
-  </si>
-  <si>
     <t>already exists</t>
   </si>
   <si>
@@ -89,6 +80,15 @@
   </si>
   <si>
     <t>apiPath</t>
+  </si>
+  <si>
+    <t>Kazakhstan FEE</t>
+  </si>
+  <si>
+    <t>KZF</t>
+  </si>
+  <si>
+    <t>USA FEE</t>
   </si>
 </sst>
 </file>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>26345345</v>
@@ -989,7 +989,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5">
         <v>201</v>
@@ -1001,7 +1001,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>26345345</v>
@@ -1010,21 +1010,21 @@
         <v>101</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5">
         <v>400</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>26345345</v>
@@ -1033,13 +1033,13 @@
         <v>102</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>400</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1052,18 +1052,18 @@
         <v>103</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5">
         <v>400</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1073,13 +1073,13 @@
         <v>104</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>400</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,34 +1103,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/tests_excels/feeTypeTestCases.xlsx
+++ b/src/test/resources/tests_excels/feeTypeTestCases.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
